--- a/Addepar.xlsx
+++ b/Addepar.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="153">
   <si>
     <t xml:space="preserve">Firm Profile</t>
   </si>
@@ -31,22 +31,28 @@
     <t xml:space="preserve">Name of Firm:</t>
   </si>
   <si>
-    <t xml:space="preserve">Double River Investments, Ltd.</t>
+    <t xml:space="preserve">Double River Impact</t>
   </si>
   <si>
     <t xml:space="preserve">Company's Billing Address:</t>
   </si>
   <si>
+    <t xml:space="preserve">139 North Hunters Grove Lane, Ste. 310, Lehi, UT 84043</t>
+  </si>
+  <si>
     <t xml:space="preserve">State / Country of Incorporation:</t>
   </si>
   <si>
-    <t xml:space="preserve">Delaware, USA</t>
+    <t xml:space="preserve">Cayman Islands</t>
   </si>
   <si>
     <t xml:space="preserve">Total # of Accounts</t>
   </si>
   <si>
     <t xml:space="preserve"># of Legal Entities (LLCs, SPVs, Trusts, etc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(that trades)</t>
   </si>
   <si>
     <t xml:space="preserve">Desired Addepar Start Date</t>
@@ -127,6 +133,9 @@
     <t xml:space="preserve">Trading</t>
   </si>
   <si>
+    <t xml:space="preserve">Bloomberg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Financial Planning</t>
   </si>
   <si>
@@ -146,6 +155,9 @@
   </si>
   <si>
     <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTM</t>
   </si>
   <si>
     <t xml:space="preserve">Reporting/Portal</t>
@@ -199,7 +211,13 @@
     <t xml:space="preserve">Please select where historical data is coming from?</t>
   </si>
   <si>
+    <t xml:space="preserve">Custodian files</t>
+  </si>
+  <si>
     <t xml:space="preserve">Average length of history:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 years</t>
   </si>
   <si>
     <t xml:space="preserve"># of Active Accounts</t>
@@ -211,19 +229,31 @@
     <t xml:space="preserve">Are historical returns and values easily accessible back to the earliest inception date?</t>
   </si>
   <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
     <t xml:space="preserve">Billing</t>
   </si>
   <si>
     <t xml:space="preserve">Billing Interval (Monthly, Quarterly)</t>
   </si>
   <si>
+    <t xml:space="preserve">Quarterly</t>
+  </si>
+  <si>
     <t xml:space="preserve">Billing Method (In Advance, Arrears, Average Daily Balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Advance</t>
   </si>
   <si>
     <t xml:space="preserve">Number of Fee Schedules</t>
   </si>
   <si>
     <t xml:space="preserve">Bill at the Household/Group level or by Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account</t>
   </si>
   <si>
     <t xml:space="preserve">Types of Fee Schedule (Tier, Flat)</t>
@@ -236,6 +266,9 @@
   </si>
   <si>
     <t xml:space="preserve">Are you doing or planning on implementing ESG/SDG reporting/selection within the next 2 years?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
   </si>
   <si>
     <t xml:space="preserve">List of Client Custodians:</t>
@@ -299,9 +332,6 @@
   </si>
   <si>
     <t xml:space="preserve">Citrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloomberg</t>
   </si>
   <si>
     <t xml:space="preserve">Azure</t>
@@ -449,9 +479,6 @@
   </si>
   <si>
     <t xml:space="preserve">Manual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
   </si>
   <si>
     <t xml:space="preserve">Automatic</t>
@@ -1508,13 +1535,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>352440</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>843480</xdr:colOff>
+      <xdr:colOff>843120</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
+      <xdr:rowOff>145440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1527,8 +1554,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14510880" y="1752480"/>
-          <a:ext cx="6629040" cy="3904920"/>
+          <a:off x="14510880" y="1710720"/>
+          <a:ext cx="6636240" cy="3904560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1554,9 +1581,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>972360</xdr:colOff>
+      <xdr:colOff>972000</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1570,7 +1597,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3986280" y="4943160"/>
-          <a:ext cx="6629040" cy="3904920"/>
+          <a:ext cx="6629400" cy="3904560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1593,13 +1620,13 @@
   <dimension ref="A1:Z1019"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="83.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.5"/>
@@ -1671,7 +1698,9 @@
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="2"/>
@@ -1699,10 +1728,10 @@
     </row>
     <row r="4" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1731,9 +1760,11 @@
     </row>
     <row r="5" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4" t="n">
+        <v>2</v>
+      </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
@@ -1759,12 +1790,16 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" s="9" customFormat="true" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="9" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="D6" s="8"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1791,10 +1826,10 @@
     </row>
     <row r="7" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1823,7 +1858,7 @@
     </row>
     <row r="8" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -1881,7 +1916,7 @@
     </row>
     <row r="10" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -1911,9 +1946,11 @@
     </row>
     <row r="11" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="15" t="n">
+        <v>23000000</v>
+      </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="2"/>
@@ -1942,10 +1979,10 @@
     <row r="12" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="16"/>
       <c r="B12" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="2"/>
@@ -1973,10 +2010,10 @@
     </row>
     <row r="13" s="9" customFormat="true" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="22"/>
@@ -2006,7 +2043,7 @@
     <row r="14" s="9" customFormat="true" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
       <c r="B14" s="23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="22"/>
@@ -2036,7 +2073,7 @@
     <row r="15" s="9" customFormat="true" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="24"/>
       <c r="B15" s="23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="26"/>
@@ -2066,7 +2103,7 @@
     <row r="16" s="9" customFormat="true" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="24"/>
       <c r="B16" s="27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="26"/>
@@ -2096,7 +2133,7 @@
     <row r="17" s="9" customFormat="true" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="24"/>
       <c r="B17" s="27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="29"/>
@@ -2126,7 +2163,7 @@
     <row r="18" s="9" customFormat="true" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="24"/>
       <c r="B18" s="27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
@@ -2156,7 +2193,7 @@
     <row r="19" s="9" customFormat="true" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="24"/>
       <c r="B19" s="27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="29"/>
@@ -2186,7 +2223,7 @@
     <row r="20" s="9" customFormat="true" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="24"/>
       <c r="B20" s="30" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="29"/>
@@ -2216,7 +2253,7 @@
     <row r="21" s="9" customFormat="true" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="24"/>
       <c r="B21" s="31" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" s="28"/>
       <c r="D21" s="29"/>
@@ -2246,7 +2283,7 @@
     <row r="22" s="9" customFormat="true" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="24"/>
       <c r="B22" s="30" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="29"/>
@@ -2276,7 +2313,7 @@
     <row r="23" s="9" customFormat="true" ht="49" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="32"/>
       <c r="B23" s="33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C23" s="34"/>
       <c r="D23" s="35"/>
@@ -2333,7 +2370,7 @@
     </row>
     <row r="25" customFormat="false" ht="61" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="36" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -2363,7 +2400,7 @@
     </row>
     <row r="26" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="37" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
@@ -2394,10 +2431,10 @@
     <row r="27" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="38"/>
       <c r="B27" s="39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D27" s="40"/>
       <c r="E27" s="2"/>
@@ -2425,7 +2462,7 @@
     </row>
     <row r="28" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28" s="42"/>
       <c r="C28" s="43"/>
@@ -2455,7 +2492,7 @@
     </row>
     <row r="29" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="44" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29" s="45"/>
       <c r="C29" s="46"/>
@@ -2485,9 +2522,11 @@
     </row>
     <row r="30" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
-      <c r="B30" s="47"/>
+      <c r="B30" s="47" t="s">
+        <v>36</v>
+      </c>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
       <c r="E30" s="2"/>
@@ -2515,7 +2554,7 @@
     </row>
     <row r="31" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="48" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31" s="47"/>
       <c r="C31" s="46"/>
@@ -2545,7 +2584,7 @@
     </row>
     <row r="32" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="44" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32" s="47"/>
       <c r="C32" s="46"/>
@@ -2575,7 +2614,7 @@
     </row>
     <row r="33" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="44" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33" s="47"/>
       <c r="C33" s="46"/>
@@ -2605,9 +2644,11 @@
     </row>
     <row r="34" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="44" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
-      <c r="B34" s="49"/>
+      <c r="B34" s="49" t="s">
+        <v>36</v>
+      </c>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
       <c r="E34" s="2"/>
@@ -2635,10 +2676,10 @@
     </row>
     <row r="35" s="9" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="50" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35" s="51" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C35" s="52"/>
       <c r="D35" s="53"/>
@@ -2667,9 +2708,11 @@
     </row>
     <row r="36" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="54" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
-      <c r="B36" s="55"/>
+      <c r="B36" s="55" t="s">
+        <v>44</v>
+      </c>
       <c r="C36" s="56"/>
       <c r="D36" s="56"/>
       <c r="E36" s="2"/>
@@ -2725,7 +2768,7 @@
     </row>
     <row r="38" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -2755,10 +2798,10 @@
     </row>
     <row r="39" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -2787,10 +2830,10 @@
     </row>
     <row r="40" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -2819,7 +2862,7 @@
     </row>
     <row r="41" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="58" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B41" s="59"/>
       <c r="C41" s="59"/>
@@ -2877,7 +2920,7 @@
     </row>
     <row r="43" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -2907,7 +2950,7 @@
     </row>
     <row r="44" customFormat="false" ht="67" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="60" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44" s="60"/>
       <c r="C44" s="60"/>
@@ -2965,7 +3008,7 @@
     </row>
     <row r="46" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="62" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B46" s="62"/>
       <c r="C46" s="62"/>
@@ -2995,7 +3038,7 @@
     </row>
     <row r="47" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -3025,7 +3068,7 @@
     </row>
     <row r="48" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="63" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B48" s="64"/>
       <c r="C48" s="64"/>
@@ -3055,7 +3098,7 @@
     </row>
     <row r="49" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="65" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B49" s="66"/>
       <c r="C49" s="66"/>
@@ -3085,7 +3128,7 @@
     </row>
     <row r="50" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="65" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B50" s="66"/>
       <c r="C50" s="66"/>
@@ -3115,7 +3158,7 @@
     </row>
     <row r="51" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="67" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B51" s="68"/>
       <c r="C51" s="68"/>
@@ -3173,7 +3216,7 @@
     </row>
     <row r="53" customFormat="false" ht="141" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="62" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53" s="62"/>
       <c r="C53" s="62"/>
@@ -3203,7 +3246,7 @@
     </row>
     <row r="54" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -3233,9 +3276,11 @@
     </row>
     <row r="55" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="63" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
-      <c r="B55" s="69"/>
+      <c r="B55" s="69" t="s">
+        <v>62</v>
+      </c>
       <c r="C55" s="69"/>
       <c r="D55" s="69"/>
       <c r="E55" s="2"/>
@@ -3263,9 +3308,11 @@
     </row>
     <row r="56" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="65" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
-      <c r="B56" s="66"/>
+      <c r="B56" s="66" t="s">
+        <v>64</v>
+      </c>
       <c r="C56" s="66"/>
       <c r="D56" s="66"/>
       <c r="E56" s="2"/>
@@ -3293,9 +3340,11 @@
     </row>
     <row r="57" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="65" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
-      <c r="B57" s="66"/>
+      <c r="B57" s="66" t="n">
+        <v>2</v>
+      </c>
       <c r="C57" s="66"/>
       <c r="D57" s="66"/>
       <c r="E57" s="2"/>
@@ -3323,9 +3372,11 @@
     </row>
     <row r="58" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="65" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
-      <c r="B58" s="66"/>
+      <c r="B58" s="66" t="n">
+        <v>0</v>
+      </c>
       <c r="C58" s="66"/>
       <c r="D58" s="66"/>
       <c r="E58" s="2"/>
@@ -3353,9 +3404,11 @@
     </row>
     <row r="59" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="67" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
-      <c r="B59" s="68"/>
+      <c r="B59" s="68" t="s">
+        <v>68</v>
+      </c>
       <c r="C59" s="68"/>
       <c r="D59" s="68"/>
       <c r="E59" s="2"/>
@@ -3411,7 +3464,7 @@
     </row>
     <row r="61" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="13" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -3441,9 +3494,11 @@
     </row>
     <row r="62" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="63" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
-      <c r="B62" s="69"/>
+      <c r="B62" s="69" t="s">
+        <v>71</v>
+      </c>
       <c r="C62" s="69"/>
       <c r="D62" s="69"/>
       <c r="E62" s="2"/>
@@ -3471,9 +3526,11 @@
     </row>
     <row r="63" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="65" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
-      <c r="B63" s="66"/>
+      <c r="B63" s="66" t="s">
+        <v>73</v>
+      </c>
       <c r="C63" s="66"/>
       <c r="D63" s="66"/>
       <c r="E63" s="2"/>
@@ -3501,7 +3558,7 @@
     </row>
     <row r="64" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="65" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B64" s="66"/>
       <c r="C64" s="66"/>
@@ -3531,9 +3588,11 @@
     </row>
     <row r="65" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="65" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
-      <c r="B65" s="66"/>
+      <c r="B65" s="66" t="s">
+        <v>76</v>
+      </c>
       <c r="C65" s="66"/>
       <c r="D65" s="66"/>
       <c r="E65" s="2"/>
@@ -3561,7 +3620,7 @@
     </row>
     <row r="66" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="65" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B66" s="66"/>
       <c r="C66" s="66"/>
@@ -3591,7 +3650,7 @@
     </row>
     <row r="67" customFormat="false" ht="49" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="67" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B67" s="68"/>
       <c r="C67" s="68"/>
@@ -3649,7 +3708,7 @@
     </row>
     <row r="69" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -3679,7 +3738,7 @@
     </row>
     <row r="70" customFormat="false" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="70" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B70" s="69"/>
       <c r="C70" s="69"/>
@@ -3709,9 +3768,11 @@
     </row>
     <row r="71" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="67" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
-      <c r="B71" s="68"/>
+      <c r="B71" s="68" t="s">
+        <v>81</v>
+      </c>
       <c r="C71" s="68"/>
       <c r="D71" s="68"/>
       <c r="E71" s="2"/>
@@ -30399,7 +30460,7 @@
   <dimension ref="A1:AA995"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30409,16 +30470,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="71" width="17.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="71" width="18.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="71" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="71" width="16.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="71" width="16.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="71" width="15.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="71" width="20.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="71" width="20.98"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="71" width="14.5"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="72" width="14.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="73" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B1" s="73"/>
       <c r="C1" s="73"/>
@@ -30430,28 +30491,28 @@
     </row>
     <row r="2" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="74" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B2" s="75" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C2" s="75" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D2" s="75" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E2" s="75" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F2" s="75" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G2" s="75" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H2" s="76" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I2" s="77"/>
       <c r="J2" s="78"/>
@@ -30475,392 +30536,392 @@
     </row>
     <row r="3" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="79" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B3" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C3" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D3" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E3" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F3" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G3" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H3" s="81" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="79" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B4" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C4" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D4" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E4" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F4" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G4" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H4" s="81" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="79" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C5" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E5" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F5" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G5" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H5" s="81" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="79" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B6" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E6" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F6" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G6" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H6" s="81" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="79" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B7" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E7" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F7" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G7" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H7" s="81" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="79" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B8" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C8" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D8" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E8" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F8" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G8" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H8" s="81" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="79" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B9" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C9" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E9" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F9" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G9" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H9" s="81" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="79" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B10" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C10" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E10" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F10" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G10" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H10" s="81" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="79" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B11" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C11" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E11" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F11" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G11" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H11" s="81" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="79" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B12" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C12" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D12" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E12" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F12" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G12" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H12" s="81" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="79" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B13" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C13" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D13" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E13" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F13" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G13" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H13" s="81" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="79" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B14" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C14" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E14" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F14" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G14" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H14" s="81" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="79" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B15" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C15" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D15" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E15" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F15" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G15" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H15" s="81" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="79" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B16" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C16" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D16" s="80" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E16" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F16" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G16" s="80" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H16" s="81" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="82" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B17" s="83" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C17" s="83" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D17" s="83" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E17" s="83" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F17" s="83" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G17" s="83" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H17" s="84" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -31819,7 +31880,7 @@
       <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="32.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.67"/>
@@ -31828,274 +31889,274 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="85" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B1" s="85" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C1" s="85" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D1" s="85" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E1" s="85" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F1" s="85" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G1" s="85" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H1" s="85" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="I1" s="85" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="86" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B2" s="87" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C2" s="87" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D2" s="87" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E2" s="86" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F2" s="86" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G2" s="87" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H2" s="87" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="I2" s="87" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="86" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B3" s="87" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C3" s="87" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D3" s="87" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E3" s="86" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="F3" s="86" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="G3" s="87" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="H3" s="87" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="I3" s="87" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="86" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B4" s="86" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C4" s="87" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D4" s="87" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E4" s="86" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F4" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="87" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="H4" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="86" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="87" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="87" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="86" t="s">
-        <v>89</v>
-      </c>
       <c r="F5" s="86" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G5" s="87" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="H5" s="87"/>
       <c r="I5" s="87" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="88" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B6" s="87" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C6" s="86" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="E6" s="86" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="F6" s="86" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G6" s="87" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="H6" s="87"/>
       <c r="I6" s="87" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="86" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B7" s="87" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C7" s="86" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E7" s="86" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F7" s="86" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G7" s="87" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H7" s="87"/>
       <c r="I7" s="87" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="86" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C8" s="87" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E8" s="86" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G8" s="87" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="H8" s="87"/>
       <c r="I8" s="87" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="86" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="86" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" s="87" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" s="87"/>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="86" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="87" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="87"/>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="86" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="86" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9" s="87" t="s">
-        <v>131</v>
-      </c>
-      <c r="H9" s="87"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="86" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="86" t="s">
-        <v>133</v>
-      </c>
-      <c r="G10" s="87" t="s">
-        <v>134</v>
-      </c>
-      <c r="H10" s="87"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="86" t="s">
-        <v>118</v>
-      </c>
       <c r="C11" s="86" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G11" s="87" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="H11" s="87"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="86" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C12" s="87" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="86" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C13" s="87" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="86" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -32120,22 +32181,22 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="87" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B1" s="87" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="87" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="B2" s="87" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
